--- a/regions/9/mretsveloba/mretsveloba.xlsx
+++ b/regions/9/mretsveloba/mretsveloba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,11 +58,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +124,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -172,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -197,6 +203,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +520,7 @@
     <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
@@ -529,7 +538,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5">
         <v>2006</v>
@@ -576,8 +585,14 @@
       <c r="P2" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q2" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -626,8 +641,14 @@
       <c r="P3" s="9">
         <v>665.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="9">
+        <v>794.5</v>
+      </c>
+      <c r="R3" s="9">
+        <v>962.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -676,8 +697,14 @@
       <c r="P4" s="9">
         <v>714.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="9">
+        <v>888.6</v>
+      </c>
+      <c r="R4" s="9">
+        <v>944.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -726,8 +753,14 @@
       <c r="P5" s="11">
         <v>6581</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="11">
+        <v>6765</v>
+      </c>
+      <c r="R5" s="11">
+        <v>6923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -776,8 +809,14 @@
       <c r="P6" s="11">
         <v>6109</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="11">
+        <v>6195</v>
+      </c>
+      <c r="R6" s="11">
+        <v>6382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -826,8 +865,14 @@
       <c r="P7" s="9">
         <v>1034</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="9">
+        <v>1103.3</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1283.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
@@ -876,8 +921,14 @@
       <c r="P8" s="9">
         <v>495.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="9">
+        <v>473.7</v>
+      </c>
+      <c r="R8" s="9">
+        <v>636.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -926,8 +977,14 @@
       <c r="P9" s="9">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="9">
+        <v>83.2</v>
+      </c>
+      <c r="R9" s="9">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
@@ -976,8 +1033,14 @@
       <c r="P10" s="9">
         <v>219.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="9">
+        <v>414.9</v>
+      </c>
+      <c r="R10" s="9">
+        <v>308.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1089,14 @@
       <c r="P11" s="9">
         <v>69.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="9">
+        <v>99.9</v>
+      </c>
+      <c r="R11" s="9">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
@@ -1076,8 +1145,14 @@
       <c r="P12" s="9">
         <v>550</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="9">
+        <v>512.4</v>
+      </c>
+      <c r="R12" s="9">
+        <v>669.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1093,7 +1168,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1109,12 +1184,12 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1130,43 +1205,44 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
     </row>
   </sheetData>

--- a/regions/9/mretsveloba/mretsveloba.xlsx
+++ b/regions/9/mretsveloba/mretsveloba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +520,7 @@
     <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
@@ -538,7 +538,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5">
         <v>2006</v>
@@ -591,8 +591,11 @@
       <c r="R2" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S2" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -647,8 +650,11 @@
       <c r="R3" s="9">
         <v>962.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S3" s="9">
+        <v>960.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -703,8 +709,11 @@
       <c r="R4" s="9">
         <v>944.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S4" s="9">
+        <v>981.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -759,8 +768,11 @@
       <c r="R5" s="11">
         <v>6923</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S5" s="11">
+        <v>7008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -815,8 +827,11 @@
       <c r="R6" s="11">
         <v>6382</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S6" s="11">
+        <v>6730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -871,8 +886,11 @@
       <c r="R7" s="9">
         <v>1283.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S7" s="9">
+        <v>1516.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
@@ -927,8 +945,11 @@
       <c r="R8" s="9">
         <v>636.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S8" s="9">
+        <v>590.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -983,8 +1004,11 @@
       <c r="R9" s="9">
         <v>99.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S9" s="9">
+        <v>124.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
@@ -1039,8 +1063,11 @@
       <c r="R10" s="9">
         <v>308.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S10" s="9">
+        <v>390.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1095,8 +1122,11 @@
       <c r="R11" s="9">
         <v>81.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S11" s="9">
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
@@ -1151,8 +1181,11 @@
       <c r="R12" s="9">
         <v>669.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="9">
+        <v>653.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1168,7 +1201,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1184,12 +1217,12 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
